--- a/6th semester/Lab 2/Lab 2 Comaparison.xlsx
+++ b/6th semester/Lab 2/Lab 2 Comaparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Программы\MIPT_computer_math\6th semester\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E5CDE3-3995-4EA8-B42E-18F533B551FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4EE458-AF71-47CE-8799-BEE4D157B8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8FFFAF0C-88C7-484C-9808-CC2A0D5E9ABD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>x =</t>
   </si>
@@ -48,13 +48,19 @@
   <si>
     <t>Formula:</t>
   </si>
+  <si>
+    <t>Euler recalculation 2h:</t>
+  </si>
+  <si>
+    <t>Euler recalculation h:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -154,6 +160,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -163,11 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,37 +207,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -333,7 +311,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Euler recalculation</c:v>
+            <c:v>Euler recalculation h</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -351,7 +329,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$3:$F$22</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.68350168350168E-3</c:v>
@@ -489,6 +467,100 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ADCA-4206-B463-4D79DC4D8A6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Euler recalculation 2h</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$39:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-3.3670032384823401E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.3867826708064601E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.104317764232182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.15459536046957201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2045048562556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.25378321533479198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.30211251804898798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.34913807230154298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.39449129425939899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.43781508532568802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.47878851510998799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.51714748337710703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.55269877440179904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.58532628395340103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.61498971518508405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.64171723813580095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.66559422682261105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.68675022347419601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.70534590512861195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.72156127083388899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5348-4259-A6C3-08B6E26D7574}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -511,8 +583,8 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -576,8 +648,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000000000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1632,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D8BED-D799-4B0B-87DA-90CB3B3FE467}">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B22"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,24 +1718,27 @@
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="2"/>
-      <c r="F1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="13"/>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18"/>
       <c r="I1" s="9"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="14">
+      <c r="M1" s="11">
         <v>1.68350168350168E-3</v>
       </c>
       <c r="N1" s="4">
@@ -1742,7 +1817,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="14">
+      <c r="M2" s="11">
         <v>-1.6835016754691099E-3</v>
       </c>
       <c r="N2" s="6">
@@ -1804,98 +1879,98 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>1.68350168350168E-3</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <f t="shared" ref="B3:B22" si="0">(1 - SQRT(2*A3^3 + 1))/ A3^2</f>
         <v>-1.6835016918115358E-3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="12">
         <v>1.68350168350168E-3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="12">
         <v>-1.6835016754691099E-3</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="15">
         <v>5.2188552188552097E-2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <f t="shared" si="0"/>
         <v>-5.2184843594692804E-2</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15">
         <v>5.2188552188552097E-2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <v>-5.2184839736271797E-2</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>0.102693602693602</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <f t="shared" si="0"/>
         <v>-0.10263805403150281</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15">
         <v>0.102693602693602</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>-0.10263803912347599</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>0.153198653198653</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>-0.15292422264480873</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15">
         <v>0.153198653198653</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <v>-0.152924189656061</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="11">
         <v>1.68350168350168E-3</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="11">
         <v>-1.6835016754691099E-3</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <v>0.203703703703703</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>-0.20284997911568944</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15">
         <v>0.203703703703703</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <v>-0.202849921427772</v>
       </c>
       <c r="R7" s="4">
@@ -1906,20 +1981,20 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>0.254208754208753</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>-0.25215435911230294</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15">
         <v>0.254208754208753</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="15">
         <v>-0.25215427086141701</v>
       </c>
       <c r="R8" s="4">
@@ -1930,20 +2005,20 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>0.30471380471380399</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>-0.30052100676450622</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15">
         <v>0.30471380471380399</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <v>-0.30052088323022602</v>
       </c>
       <c r="R9" s="4">
@@ -1954,20 +2029,20 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>0.35521885521885399</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>-0.3475961026717333</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15">
         <v>0.35521885521885399</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="15">
         <v>-0.34759594064506599</v>
       </c>
       <c r="R10" s="4">
@@ -1978,20 +2053,20 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <v>0.40572390572390399</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>-0.39301111588014576</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15">
         <v>0.40572390572390399</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <v>-0.39301091393486698</v>
       </c>
       <c r="R11" s="4">
@@ -2002,20 +2077,20 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>0.45622895622895399</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>-0.436408146429629</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15">
         <v>0.45622895622895399</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <v>-0.43640790503188198</v>
       </c>
       <c r="R12" s="4">
@@ -2026,20 +2101,20 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>0.50673400673400504</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <f t="shared" si="0"/>
         <v>-0.47746468756366256</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15">
         <v>0.50673400673400504</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="15">
         <v>-0.47746440898651599</v>
       </c>
       <c r="R13" s="4">
@@ -2050,20 +2125,20 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>0.55723905723905698</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <f t="shared" si="0"/>
         <v>-0.51591447039706351</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15">
         <v>0.55723905723905698</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <v>-0.51591415845013</v>
       </c>
       <c r="R14" s="4">
@@ -2074,20 +2149,20 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>0.60774410774410903</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <f t="shared" si="0"/>
         <v>-0.55156176729265649</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15">
         <v>0.60774410774410903</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="15">
         <v>-0.55156142691702903</v>
       </c>
       <c r="R15" s="5">
@@ -2098,20 +2173,20 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>0.65824915824916097</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <f t="shared" si="0"/>
         <v>-0.58428788321617264</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15">
         <v>0.65824915824916097</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <v>-0.58428752001814099</v>
       </c>
       <c r="R16" s="5">
@@ -2121,21 +2196,21 @@
         <v>-0.47746440898651599</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>0.70875420875421302</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <f t="shared" si="0"/>
         <v>-0.61405008374310488</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15">
         <v>0.70875420875421302</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="15">
         <v>-0.61404970354091404</v>
       </c>
       <c r="R17" s="5">
@@ -2145,21 +2220,21 @@
         <v>-0.51591415845013</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>0.75925925925926496</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <f t="shared" si="0"/>
         <v>-0.64087442315833831</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15">
         <v>0.75925925925926496</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="15">
         <v>-0.64087403159877898</v>
       </c>
       <c r="R18" s="5">
@@ -2169,21 +2244,21 @@
         <v>-0.55156142691702903</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>0.80976430976431701</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <f t="shared" si="0"/>
         <v>-0.66484457608909076</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15">
         <v>0.80976430976431701</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="15">
         <v>-0.66484417836467202</v>
       </c>
       <c r="R19" s="5">
@@ -2193,21 +2268,21 @@
         <v>-0.58428752001814099</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>0.86026936026936895</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <f t="shared" si="0"/>
         <v>-0.6860888289854965</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15">
         <v>0.86026936026936895</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="15">
         <v>-0.68608842965803796</v>
       </c>
       <c r="R20" s="5">
@@ -2217,21 +2292,21 @@
         <v>-0.61404970354091404</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>0.91077441077442001</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="13">
         <f t="shared" si="0"/>
         <v>-0.70476702338598152</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15">
         <v>0.91077441077442001</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="15">
         <v>-0.70476662630466003</v>
       </c>
       <c r="R21" s="5">
@@ -2241,21 +2316,21 @@
         <v>-0.64087403159877898</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>0.96127946127947195</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="13">
         <f t="shared" si="0"/>
         <v>-0.72105868858564959</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15">
         <v>0.96127946127947195</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="15">
         <v>-0.72105829687838296</v>
       </c>
       <c r="R22" s="8">
@@ -2265,7 +2340,7 @@
         <v>-0.66484417836467202</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" s="8">
         <v>0.86026936026936895</v>
       </c>
@@ -2273,7 +2348,7 @@
         <v>-0.68608842965803796</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" s="8">
         <v>0.91077441077442001</v>
       </c>
@@ -2281,7 +2356,7 @@
         <v>-0.70476662630466003</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25">
         <v>0.96127946127947195</v>
       </c>
@@ -2289,10 +2364,654 @@
         <v>-0.72105829687838296</v>
       </c>
     </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="M30" s="11">
+        <v>3.3670033670033599E-3</v>
+      </c>
+      <c r="N30">
+        <v>5.38720538720538E-2</v>
+      </c>
+      <c r="O30">
+        <v>0.104377104377104</v>
+      </c>
+      <c r="P30">
+        <v>0.15488215488215401</v>
+      </c>
+      <c r="Q30">
+        <v>0.20538720538720501</v>
+      </c>
+      <c r="R30">
+        <v>0.255892255892256</v>
+      </c>
+      <c r="S30">
+        <v>0.306397306397306</v>
+      </c>
+      <c r="T30">
+        <v>0.356902356902356</v>
+      </c>
+      <c r="U30">
+        <v>0.407407407407407</v>
+      </c>
+      <c r="V30">
+        <v>0.45791245791245699</v>
+      </c>
+      <c r="W30">
+        <v>0.50841750841750699</v>
+      </c>
+      <c r="X30">
+        <v>0.55892255892255704</v>
+      </c>
+      <c r="Y30">
+        <v>0.60942760942760799</v>
+      </c>
+      <c r="Z30">
+        <v>0.65993265993265804</v>
+      </c>
+      <c r="AA30">
+        <v>0.71043771043770798</v>
+      </c>
+      <c r="AB30">
+        <v>0.76094276094275903</v>
+      </c>
+      <c r="AC30">
+        <v>0.81144781144780898</v>
+      </c>
+      <c r="AD30">
+        <v>0.86195286195285903</v>
+      </c>
+      <c r="AE30">
+        <v>0.91245791245790897</v>
+      </c>
+      <c r="AF30">
+        <v>0.96296296296296002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="M31" s="11">
+        <v>-3.3670032384823401E-3</v>
+      </c>
+      <c r="N31">
+        <v>-5.3867826708064601E-2</v>
+      </c>
+      <c r="O31">
+        <v>-0.104317764232182</v>
+      </c>
+      <c r="P31">
+        <v>-0.15459536046957201</v>
+      </c>
+      <c r="Q31">
+        <v>-0.2045048562556</v>
+      </c>
+      <c r="R31">
+        <v>-0.25378321533479198</v>
+      </c>
+      <c r="S31">
+        <v>-0.30211251804898798</v>
+      </c>
+      <c r="T31">
+        <v>-0.34913807230154298</v>
+      </c>
+      <c r="U31">
+        <v>-0.39449129425939899</v>
+      </c>
+      <c r="V31">
+        <v>-0.43781508532568802</v>
+      </c>
+      <c r="W31">
+        <v>-0.47878851510998799</v>
+      </c>
+      <c r="X31">
+        <v>-0.51714748337710703</v>
+      </c>
+      <c r="Y31">
+        <v>-0.55269877440179904</v>
+      </c>
+      <c r="Z31">
+        <v>-0.58532628395340103</v>
+      </c>
+      <c r="AA31">
+        <v>-0.61498971518508405</v>
+      </c>
+      <c r="AB31">
+        <v>-0.64171723813580095</v>
+      </c>
+      <c r="AC31">
+        <v>-0.66559422682261105</v>
+      </c>
+      <c r="AD31">
+        <v>-0.68675022347419601</v>
+      </c>
+      <c r="AE31">
+        <v>-0.70534590512861195</v>
+      </c>
+      <c r="AF31">
+        <v>-0.72156127083388899</v>
+      </c>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="Q36" s="11">
+        <v>3.3670033670033599E-3</v>
+      </c>
+      <c r="R36" s="11">
+        <v>-3.3670032384823401E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="18"/>
+      <c r="Q37">
+        <v>5.38720538720538E-2</v>
+      </c>
+      <c r="R37">
+        <v>-5.3867826708064601E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0.104377104377104</v>
+      </c>
+      <c r="R38">
+        <v>-0.104317764232182</v>
+      </c>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M39" s="12">
+        <v>3.3670033670033599E-3</v>
+      </c>
+      <c r="N39" s="12">
+        <v>-3.3670032384823401E-3</v>
+      </c>
+      <c r="Q39">
+        <v>0.15488215488215401</v>
+      </c>
+      <c r="R39">
+        <v>-0.15459536046957201</v>
+      </c>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F40" s="19"/>
+      <c r="G40" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="M40" s="15">
+        <v>5.38720538720538E-2</v>
+      </c>
+      <c r="N40" s="15">
+        <v>-5.3867826708064601E-2</v>
+      </c>
+      <c r="Q40">
+        <v>0.20538720538720501</v>
+      </c>
+      <c r="R40">
+        <v>-0.2045048562556</v>
+      </c>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0.104377104377104</v>
+      </c>
+      <c r="N41" s="15">
+        <v>-0.104317764232182</v>
+      </c>
+      <c r="Q41">
+        <v>0.255892255892256</v>
+      </c>
+      <c r="R41">
+        <v>-0.25378321533479198</v>
+      </c>
+    </row>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F42" s="12">
+        <v>1.68350168350168E-3</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" ref="G42:G61" si="1">(1 - SQRT(2*F42^3 + 1))/ F42^2</f>
+        <v>-1.6835016918115358E-3</v>
+      </c>
+      <c r="H42" s="12">
+        <v>-1.6835016754691099E-3</v>
+      </c>
+      <c r="M42" s="15">
+        <v>0.15488215488215401</v>
+      </c>
+      <c r="N42" s="15">
+        <v>-0.15459536046957201</v>
+      </c>
+      <c r="Q42">
+        <v>0.306397306397306</v>
+      </c>
+      <c r="R42">
+        <v>-0.30211251804898798</v>
+      </c>
+    </row>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F43" s="15">
+        <v>5.2188552188552097E-2</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="1"/>
+        <v>-5.2184843594692804E-2</v>
+      </c>
+      <c r="H43" s="15">
+        <v>-5.2184839736271797E-2</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0.20538720538720501</v>
+      </c>
+      <c r="N43" s="15">
+        <v>-0.2045048562556</v>
+      </c>
+      <c r="Q43">
+        <v>0.356902356902356</v>
+      </c>
+      <c r="R43">
+        <v>-0.34913807230154298</v>
+      </c>
+    </row>
+    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F44" s="15">
+        <v>0.102693602693602</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.10263805403150281</v>
+      </c>
+      <c r="H44" s="15">
+        <v>-0.10263803912347599</v>
+      </c>
+      <c r="M44" s="15">
+        <v>0.255892255892256</v>
+      </c>
+      <c r="N44" s="15">
+        <v>-0.25378321533479198</v>
+      </c>
+      <c r="Q44">
+        <v>0.407407407407407</v>
+      </c>
+      <c r="R44">
+        <v>-0.39449129425939899</v>
+      </c>
+    </row>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F45" s="15">
+        <v>0.153198653198653</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.15292422264480873</v>
+      </c>
+      <c r="H45" s="15">
+        <v>-0.152924189656061</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0.306397306397306</v>
+      </c>
+      <c r="N45" s="15">
+        <v>-0.30211251804898798</v>
+      </c>
+      <c r="Q45">
+        <v>0.45791245791245699</v>
+      </c>
+      <c r="R45">
+        <v>-0.43781508532568802</v>
+      </c>
+    </row>
+    <row r="46" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F46" s="15">
+        <v>0.203703703703703</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.20284997911568944</v>
+      </c>
+      <c r="H46" s="15">
+        <v>-0.202849921427772</v>
+      </c>
+      <c r="M46" s="15">
+        <v>0.356902356902356</v>
+      </c>
+      <c r="N46" s="15">
+        <v>-0.34913807230154298</v>
+      </c>
+      <c r="Q46">
+        <v>0.50841750841750699</v>
+      </c>
+      <c r="R46">
+        <v>-0.47878851510998799</v>
+      </c>
+    </row>
+    <row r="47" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F47" s="15">
+        <v>0.254208754208753</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.25215435911230294</v>
+      </c>
+      <c r="H47" s="15">
+        <v>-0.25215427086141701</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0.407407407407407</v>
+      </c>
+      <c r="N47" s="15">
+        <v>-0.39449129425939899</v>
+      </c>
+      <c r="Q47">
+        <v>0.55892255892255704</v>
+      </c>
+      <c r="R47">
+        <v>-0.51714748337710703</v>
+      </c>
+    </row>
+    <row r="48" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F48" s="15">
+        <v>0.30471380471380399</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.30052100676450622</v>
+      </c>
+      <c r="H48" s="15">
+        <v>-0.30052088323022602</v>
+      </c>
+      <c r="M48" s="15">
+        <v>0.45791245791245699</v>
+      </c>
+      <c r="N48" s="15">
+        <v>-0.43781508532568802</v>
+      </c>
+      <c r="Q48">
+        <v>0.60942760942760799</v>
+      </c>
+      <c r="R48">
+        <v>-0.55269877440179904</v>
+      </c>
+    </row>
+    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F49" s="15">
+        <v>0.35521885521885399</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.3475961026717333</v>
+      </c>
+      <c r="H49" s="15">
+        <v>-0.34759594064506599</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0.50841750841750699</v>
+      </c>
+      <c r="N49" s="15">
+        <v>-0.47878851510998799</v>
+      </c>
+      <c r="Q49">
+        <v>0.65993265993265804</v>
+      </c>
+      <c r="R49">
+        <v>-0.58532628395340103</v>
+      </c>
+    </row>
+    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F50" s="15">
+        <v>0.40572390572390399</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.39301111588014576</v>
+      </c>
+      <c r="H50" s="15">
+        <v>-0.39301091393486698</v>
+      </c>
+      <c r="M50" s="15">
+        <v>0.55892255892255704</v>
+      </c>
+      <c r="N50" s="15">
+        <v>-0.51714748337710703</v>
+      </c>
+      <c r="Q50">
+        <v>0.71043771043770798</v>
+      </c>
+      <c r="R50">
+        <v>-0.61498971518508405</v>
+      </c>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F51" s="15">
+        <v>0.45622895622895399</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.436408146429629</v>
+      </c>
+      <c r="H51" s="15">
+        <v>-0.43640790503188198</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0.60942760942760799</v>
+      </c>
+      <c r="N51" s="15">
+        <v>-0.55269877440179904</v>
+      </c>
+      <c r="Q51">
+        <v>0.76094276094275903</v>
+      </c>
+      <c r="R51">
+        <v>-0.64171723813580095</v>
+      </c>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F52" s="15">
+        <v>0.50673400673400504</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.47746468756366256</v>
+      </c>
+      <c r="H52" s="15">
+        <v>-0.47746440898651599</v>
+      </c>
+      <c r="M52" s="15">
+        <v>0.65993265993265804</v>
+      </c>
+      <c r="N52" s="15">
+        <v>-0.58532628395340103</v>
+      </c>
+      <c r="Q52">
+        <v>0.81144781144780898</v>
+      </c>
+      <c r="R52">
+        <v>-0.66559422682261105</v>
+      </c>
+    </row>
+    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F53" s="15">
+        <v>0.55723905723905698</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.51591447039706351</v>
+      </c>
+      <c r="H53" s="15">
+        <v>-0.51591415845013</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0.71043771043770798</v>
+      </c>
+      <c r="N53" s="15">
+        <v>-0.61498971518508405</v>
+      </c>
+      <c r="Q53">
+        <v>0.86195286195285903</v>
+      </c>
+      <c r="R53">
+        <v>-0.68675022347419601</v>
+      </c>
+    </row>
+    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F54" s="15">
+        <v>0.60774410774410903</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.55156176729265649</v>
+      </c>
+      <c r="H54" s="15">
+        <v>-0.55156142691702903</v>
+      </c>
+      <c r="M54" s="15">
+        <v>0.76094276094275903</v>
+      </c>
+      <c r="N54" s="15">
+        <v>-0.64171723813580095</v>
+      </c>
+      <c r="Q54">
+        <v>0.91245791245790897</v>
+      </c>
+      <c r="R54">
+        <v>-0.70534590512861195</v>
+      </c>
+    </row>
+    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F55" s="15">
+        <v>0.65824915824916097</v>
+      </c>
+      <c r="G55" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.58428788321617264</v>
+      </c>
+      <c r="H55" s="15">
+        <v>-0.58428752001814099</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0.81144781144780898</v>
+      </c>
+      <c r="N55" s="15">
+        <v>-0.66559422682261105</v>
+      </c>
+      <c r="Q55">
+        <v>0.96296296296296002</v>
+      </c>
+      <c r="R55">
+        <v>-0.72156127083388899</v>
+      </c>
+    </row>
+    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F56" s="15">
+        <v>0.70875420875421302</v>
+      </c>
+      <c r="G56" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.61405008374310488</v>
+      </c>
+      <c r="H56" s="15">
+        <v>-0.61404970354091404</v>
+      </c>
+      <c r="M56" s="15">
+        <v>0.86195286195285903</v>
+      </c>
+      <c r="N56" s="15">
+        <v>-0.68675022347419601</v>
+      </c>
+    </row>
+    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F57" s="15">
+        <v>0.75925925925926496</v>
+      </c>
+      <c r="G57" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.64087442315833831</v>
+      </c>
+      <c r="H57" s="15">
+        <v>-0.64087403159877898</v>
+      </c>
+      <c r="M57" s="15">
+        <v>0.91245791245790897</v>
+      </c>
+      <c r="N57" s="15">
+        <v>-0.70534590512861195</v>
+      </c>
+    </row>
+    <row r="58" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F58" s="15">
+        <v>0.80976430976431701</v>
+      </c>
+      <c r="G58" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.66484457608909076</v>
+      </c>
+      <c r="H58" s="15">
+        <v>-0.66484417836467202</v>
+      </c>
+      <c r="M58" s="15">
+        <v>0.96296296296296002</v>
+      </c>
+      <c r="N58" s="15">
+        <v>-0.72156127083388899</v>
+      </c>
+    </row>
+    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F59" s="15">
+        <v>0.86026936026936895</v>
+      </c>
+      <c r="G59" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.6860888289854965</v>
+      </c>
+      <c r="H59" s="15">
+        <v>-0.68608842965803796</v>
+      </c>
+    </row>
+    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F60" s="15">
+        <v>0.91077441077442001</v>
+      </c>
+      <c r="G60" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.70476702338598152</v>
+      </c>
+      <c r="H60" s="15">
+        <v>-0.70476662630466003</v>
+      </c>
+    </row>
+    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F61" s="15">
+        <v>0.96127946127947195</v>
+      </c>
+      <c r="G61" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.72105868858564959</v>
+      </c>
+      <c r="H61" s="15">
+        <v>-0.72105829687838296</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/6th semester/Lab 2/Lab 2 Comaparison.xlsx
+++ b/6th semester/Lab 2/Lab 2 Comaparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Программы\MIPT_computer_math\6th semester\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4EE458-AF71-47CE-8799-BEE4D157B8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C168B0E-5D21-4150-AE18-296AB89B65B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8FFFAF0C-88C7-484C-9808-CC2A0D5E9ABD}"/>
   </bookViews>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>x =</t>
   </si>
   <si>
     <t>y =</t>
-  </si>
-  <si>
-    <t>Euler recalculation:</t>
   </si>
   <si>
     <t>Formula:</t>
@@ -54,15 +51,30 @@
   <si>
     <t>Euler recalculation h:</t>
   </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>|Formula - Euler(2h)|</t>
+  </si>
+  <si>
+    <t>|Formula - Euler(h)|</t>
+  </si>
+  <si>
+    <t>Max Error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0.0000000000_-;\-* #,##0.0000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +97,14 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,10 +165,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -165,6 +186,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -174,10 +197,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -329,7 +355,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$3:$F$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.68350168350168E-3</c:v>
@@ -1370,15 +1396,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>154132</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>164235</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>154132</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>154131</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>130753</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1704,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D8BED-D799-4B0B-87DA-90CB3B3FE467}">
-  <dimension ref="A1:AF61"/>
+  <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,24 +1742,27 @@
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="2"/>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18"/>
+      <c r="F1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="20"/>
       <c r="I1" s="9"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1979,6 +2008,12 @@
       <c r="S7" s="6">
         <v>-5.2184839736271797E-2</v>
       </c>
+      <c r="Y7" s="11">
+        <v>3.3670033670033599E-3</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>-3.3670032384823401E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -2003,6 +2038,12 @@
       <c r="S8" s="6">
         <v>-0.10263803912347599</v>
       </c>
+      <c r="Y8">
+        <v>5.38720538720538E-2</v>
+      </c>
+      <c r="Z8">
+        <v>-5.3867826708064601E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
@@ -2027,6 +2068,12 @@
       <c r="S9" s="6">
         <v>-0.152924189656061</v>
       </c>
+      <c r="Y9">
+        <v>0.104377104377104</v>
+      </c>
+      <c r="Z9">
+        <v>-0.104317764232182</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -2051,6 +2098,12 @@
       <c r="S10" s="6">
         <v>-0.202849921427772</v>
       </c>
+      <c r="Y10">
+        <v>0.15488215488215401</v>
+      </c>
+      <c r="Z10">
+        <v>-0.15459536046957201</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
@@ -2075,6 +2128,12 @@
       <c r="S11" s="6">
         <v>-0.25215427086141701</v>
       </c>
+      <c r="Y11">
+        <v>0.20538720538720501</v>
+      </c>
+      <c r="Z11">
+        <v>-0.2045048562556</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
@@ -2099,6 +2158,12 @@
       <c r="S12" s="6">
         <v>-0.30052088323022602</v>
       </c>
+      <c r="Y12">
+        <v>0.255892255892256</v>
+      </c>
+      <c r="Z12">
+        <v>-0.25378321533479198</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -2123,6 +2188,12 @@
       <c r="S13" s="6">
         <v>-0.34759594064506599</v>
       </c>
+      <c r="Y13">
+        <v>0.306397306397306</v>
+      </c>
+      <c r="Z13">
+        <v>-0.30211251804898798</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
@@ -2147,6 +2218,12 @@
       <c r="S14" s="6">
         <v>-0.39301091393486698</v>
       </c>
+      <c r="Y14">
+        <v>0.356902356902356</v>
+      </c>
+      <c r="Z14">
+        <v>-0.34913807230154298</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
@@ -2171,6 +2248,12 @@
       <c r="S15" s="7">
         <v>-0.43640790503188198</v>
       </c>
+      <c r="Y15">
+        <v>0.407407407407407</v>
+      </c>
+      <c r="Z15">
+        <v>-0.39449129425939899</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
@@ -2195,6 +2278,12 @@
       <c r="S16" s="8">
         <v>-0.47746440898651599</v>
       </c>
+      <c r="Y16">
+        <v>0.45791245791245699</v>
+      </c>
+      <c r="Z16">
+        <v>-0.43781508532568802</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
@@ -2219,6 +2308,12 @@
       <c r="S17" s="8">
         <v>-0.51591415845013</v>
       </c>
+      <c r="Y17">
+        <v>0.50841750841750699</v>
+      </c>
+      <c r="Z17">
+        <v>-0.47878851510998799</v>
+      </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -2243,6 +2338,12 @@
       <c r="S18" s="8">
         <v>-0.55156142691702903</v>
       </c>
+      <c r="Y18">
+        <v>0.55892255892255704</v>
+      </c>
+      <c r="Z18">
+        <v>-0.51714748337710703</v>
+      </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -2267,6 +2368,12 @@
       <c r="S19" s="8">
         <v>-0.58428752001814099</v>
       </c>
+      <c r="Y19">
+        <v>0.60942760942760799</v>
+      </c>
+      <c r="Z19">
+        <v>-0.55269877440179904</v>
+      </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -2291,6 +2398,12 @@
       <c r="S20" s="8">
         <v>-0.61404970354091404</v>
       </c>
+      <c r="Y20">
+        <v>0.65993265993265804</v>
+      </c>
+      <c r="Z20">
+        <v>-0.58532628395340103</v>
+      </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -2315,6 +2428,12 @@
       <c r="S21" s="8">
         <v>-0.64087403159877898</v>
       </c>
+      <c r="Y21">
+        <v>0.71043771043770798</v>
+      </c>
+      <c r="Z21">
+        <v>-0.61498971518508405</v>
+      </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -2339,6 +2458,12 @@
       <c r="S22" s="8">
         <v>-0.66484417836467202</v>
       </c>
+      <c r="Y22">
+        <v>0.76094276094275903</v>
+      </c>
+      <c r="Z22">
+        <v>-0.64171723813580095</v>
+      </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" s="8">
@@ -2347,6 +2472,12 @@
       <c r="S23" s="8">
         <v>-0.68608842965803796</v>
       </c>
+      <c r="Y23">
+        <v>0.81144781144780898</v>
+      </c>
+      <c r="Z23">
+        <v>-0.66559422682261105</v>
+      </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" s="8">
@@ -2355,6 +2486,12 @@
       <c r="S24" s="8">
         <v>-0.70476662630466003</v>
       </c>
+      <c r="Y24">
+        <v>0.86195286195285903</v>
+      </c>
+      <c r="Z24">
+        <v>-0.68675022347419601</v>
+      </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25">
@@ -2363,6 +2500,20 @@
       <c r="S25">
         <v>-0.72105829687838296</v>
       </c>
+      <c r="Y25">
+        <v>0.91245791245790897</v>
+      </c>
+      <c r="Z25">
+        <v>-0.70534590512861195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>0.96296296296296002</v>
+      </c>
+      <c r="Z26">
+        <v>-0.72156127083388899</v>
+      </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M30" s="11">
@@ -2488,77 +2639,75 @@
         <v>-0.72156127083388899</v>
       </c>
     </row>
-    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="Q36" s="11">
-        <v>3.3670033670033599E-3</v>
-      </c>
-      <c r="R36" s="11">
-        <v>-3.3670032384823401E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="M37" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N37" s="18"/>
-      <c r="Q37">
-        <v>5.38720538720538E-2</v>
-      </c>
-      <c r="R37">
-        <v>-5.3867826708064601E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="20"/>
+      <c r="O37" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="M38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q38">
-        <v>0.104377104377104</v>
-      </c>
-      <c r="R38">
-        <v>-0.104317764232182</v>
-      </c>
-    </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="M39" s="12">
         <v>3.3670033670033599E-3</v>
       </c>
       <c r="N39" s="12">
         <v>-3.3670032384823401E-3</v>
       </c>
-      <c r="Q39">
-        <v>0.15488215488215401</v>
-      </c>
-      <c r="R39">
-        <v>-0.15459536046957201</v>
-      </c>
-    </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F40" s="19"/>
-      <c r="G40" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="20" t="s">
+      <c r="O39" s="13">
+        <f>(1 - SQRT(2*M39^3 + 1))/ M39^2</f>
+        <v>-3.3670033052777414E-3</v>
+      </c>
+      <c r="P39" s="23">
+        <f>ABS(O39-N39)</f>
+        <v>6.679540124135408E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="20"/>
+      <c r="I40" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="M40" s="15">
         <v>5.38720538720538E-2</v>
       </c>
       <c r="N40" s="15">
         <v>-5.3867826708064601E-2</v>
       </c>
-      <c r="Q40">
-        <v>0.20538720538720501</v>
-      </c>
-      <c r="R40">
-        <v>-0.2045048562556</v>
-      </c>
-    </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O40" s="13">
+        <f t="shared" ref="O40:O58" si="1">(1 - SQRT(2*M40^3 + 1))/ M40^2</f>
+        <v>-5.3867843153208195E-2</v>
+      </c>
+      <c r="P40" s="23">
+        <f t="shared" ref="P40:P58" si="2">ABS(O40-N40)</f>
+        <v>1.6445143594112643E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2568,29 +2717,38 @@
       <c r="H41" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I41" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="M41" s="15">
         <v>0.104377104377104</v>
       </c>
       <c r="N41" s="15">
         <v>-0.104317764232182</v>
       </c>
-      <c r="Q41">
-        <v>0.255892255892256</v>
-      </c>
-      <c r="R41">
-        <v>-0.25378321533479198</v>
-      </c>
-    </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O41" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.10431782583043811</v>
+      </c>
+      <c r="P41" s="23">
+        <f t="shared" si="2"/>
+        <v>6.159825610696501E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F42" s="12">
         <v>1.68350168350168E-3</v>
       </c>
-      <c r="G42" s="13">
-        <f t="shared" ref="G42:G61" si="1">(1 - SQRT(2*F42^3 + 1))/ F42^2</f>
+      <c r="G42" s="12">
+        <v>-1.6835016754691099E-3</v>
+      </c>
+      <c r="H42" s="13">
+        <f>(1 - SQRT(2*F42^3 + 1))/ F42^2</f>
         <v>-1.6835016918115358E-3</v>
       </c>
-      <c r="H42" s="12">
-        <v>-1.6835016754691099E-3</v>
+      <c r="I42" s="23">
+        <f>ABS(G42-H42)</f>
+        <v>1.6342425893448032E-11</v>
       </c>
       <c r="M42" s="15">
         <v>0.15488215488215401</v>
@@ -2598,23 +2756,29 @@
       <c r="N42" s="15">
         <v>-0.15459536046957201</v>
       </c>
-      <c r="Q42">
-        <v>0.306397306397306</v>
-      </c>
-      <c r="R42">
-        <v>-0.30211251804898798</v>
-      </c>
-    </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O42" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.15459549531602687</v>
+      </c>
+      <c r="P42" s="23">
+        <f t="shared" si="2"/>
+        <v>1.3484645486339097E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F43" s="15">
         <v>5.2188552188552097E-2</v>
       </c>
-      <c r="G43" s="13">
-        <f t="shared" si="1"/>
+      <c r="G43" s="15">
+        <v>-5.2184839736271797E-2</v>
+      </c>
+      <c r="H43" s="13">
+        <f>(1 - SQRT(2*F43^3 + 1))/ F43^2</f>
         <v>-5.2184843594692804E-2</v>
       </c>
-      <c r="H43" s="15">
-        <v>-5.2184839736271797E-2</v>
+      <c r="I43" s="23">
+        <f>ABS(G43-H43)</f>
+        <v>3.8584210063086211E-9</v>
       </c>
       <c r="M43" s="15">
         <v>0.20538720538720501</v>
@@ -2622,23 +2786,29 @@
       <c r="N43" s="15">
         <v>-0.2045048562556</v>
       </c>
-      <c r="Q43">
-        <v>0.356902356902356</v>
-      </c>
-      <c r="R43">
-        <v>-0.34913807230154298</v>
-      </c>
-    </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O43" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.2045050907621582</v>
+      </c>
+      <c r="P43" s="23">
+        <f t="shared" si="2"/>
+        <v>2.3450655819989841E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F44" s="15">
         <v>0.102693602693602</v>
       </c>
-      <c r="G44" s="13">
-        <f t="shared" si="1"/>
+      <c r="G44" s="15">
+        <v>-0.10263803912347599</v>
+      </c>
+      <c r="H44" s="13">
+        <f>(1 - SQRT(2*F44^3 + 1))/ F44^2</f>
         <v>-0.10263805403150281</v>
       </c>
-      <c r="H44" s="15">
-        <v>-0.10263803912347599</v>
+      <c r="I44" s="23">
+        <f>ABS(G44-H44)</f>
+        <v>1.4908026813031938E-8</v>
       </c>
       <c r="M44" s="15">
         <v>0.255892255892256</v>
@@ -2646,23 +2816,29 @@
       <c r="N44" s="15">
         <v>-0.25378321533479198</v>
       </c>
-      <c r="Q44">
-        <v>0.407407407407407</v>
-      </c>
-      <c r="R44">
-        <v>-0.39449129425939899</v>
-      </c>
-    </row>
-    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O44" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.25378357285374581</v>
+      </c>
+      <c r="P44" s="23">
+        <f t="shared" si="2"/>
+        <v>3.5751895383073773E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F45" s="15">
         <v>0.153198653198653</v>
       </c>
-      <c r="G45" s="13">
-        <f t="shared" si="1"/>
+      <c r="G45" s="15">
+        <v>-0.152924189656061</v>
+      </c>
+      <c r="H45" s="13">
+        <f>(1 - SQRT(2*F45^3 + 1))/ F45^2</f>
         <v>-0.15292422264480873</v>
       </c>
-      <c r="H45" s="15">
-        <v>-0.152924189656061</v>
+      <c r="I45" s="23">
+        <f>ABS(G45-H45)</f>
+        <v>3.2988747733497803E-8</v>
       </c>
       <c r="M45" s="15">
         <v>0.306397306397306</v>
@@ -2670,23 +2846,29 @@
       <c r="N45" s="15">
         <v>-0.30211251804898798</v>
       </c>
-      <c r="Q45">
-        <v>0.45791245791245699</v>
-      </c>
-      <c r="R45">
-        <v>-0.43781508532568802</v>
-      </c>
-    </row>
-    <row r="46" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O45" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.30211301731573181</v>
+      </c>
+      <c r="P45" s="23">
+        <f t="shared" si="2"/>
+        <v>4.9926674383637959E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F46" s="15">
         <v>0.203703703703703</v>
       </c>
-      <c r="G46" s="13">
-        <f t="shared" si="1"/>
+      <c r="G46" s="15">
+        <v>-0.202849921427772</v>
+      </c>
+      <c r="H46" s="13">
+        <f>(1 - SQRT(2*F46^3 + 1))/ F46^2</f>
         <v>-0.20284997911568944</v>
       </c>
-      <c r="H46" s="15">
-        <v>-0.202849921427772</v>
+      <c r="I46" s="23">
+        <f>ABS(G46-H46)</f>
+        <v>5.7687917442983405E-8</v>
       </c>
       <c r="M46" s="15">
         <v>0.356902356902356</v>
@@ -2694,23 +2876,29 @@
       <c r="N46" s="15">
         <v>-0.34913807230154298</v>
       </c>
-      <c r="Q46">
-        <v>0.50841750841750699</v>
-      </c>
-      <c r="R46">
-        <v>-0.47878851510998799</v>
-      </c>
-    </row>
-    <row r="47" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O46" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.34913872596750128</v>
+      </c>
+      <c r="P46" s="23">
+        <f t="shared" si="2"/>
+        <v>6.5366595830562702E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F47" s="15">
         <v>0.254208754208753</v>
       </c>
-      <c r="G47" s="13">
-        <f t="shared" si="1"/>
+      <c r="G47" s="15">
+        <v>-0.25215427086141701</v>
+      </c>
+      <c r="H47" s="13">
+        <f>(1 - SQRT(2*F47^3 + 1))/ F47^2</f>
         <v>-0.25215435911230294</v>
       </c>
-      <c r="H47" s="15">
-        <v>-0.25215427086141701</v>
+      <c r="I47" s="23">
+        <f>ABS(G47-H47)</f>
+        <v>8.8250885932339429E-8</v>
       </c>
       <c r="M47" s="15">
         <v>0.407407407407407</v>
@@ -2718,23 +2906,29 @@
       <c r="N47" s="15">
         <v>-0.39449129425939899</v>
       </c>
-      <c r="Q47">
-        <v>0.55892255892255704</v>
-      </c>
-      <c r="R47">
-        <v>-0.51714748337710703</v>
-      </c>
-    </row>
-    <row r="48" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O47" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.39449210781963651</v>
+      </c>
+      <c r="P47" s="23">
+        <f t="shared" si="2"/>
+        <v>8.1356023751144591E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F48" s="15">
         <v>0.30471380471380399</v>
       </c>
-      <c r="G48" s="13">
-        <f t="shared" si="1"/>
+      <c r="G48" s="15">
+        <v>-0.30052088323022602</v>
+      </c>
+      <c r="H48" s="13">
+        <f>(1 - SQRT(2*F48^3 + 1))/ F48^2</f>
         <v>-0.30052100676450622</v>
       </c>
-      <c r="H48" s="15">
-        <v>-0.30052088323022602</v>
+      <c r="I48" s="23">
+        <f>ABS(G48-H48)</f>
+        <v>1.2353428019418189E-7</v>
       </c>
       <c r="M48" s="15">
         <v>0.45791245791245699</v>
@@ -2742,23 +2936,29 @@
       <c r="N48" s="15">
         <v>-0.43781508532568802</v>
       </c>
-      <c r="Q48">
-        <v>0.60942760942760799</v>
-      </c>
-      <c r="R48">
-        <v>-0.55269877440179904</v>
-      </c>
-    </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O48" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.43781605669930967</v>
+      </c>
+      <c r="P48" s="23">
+        <f t="shared" si="2"/>
+        <v>9.7137362164989582E-7</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F49" s="15">
         <v>0.35521885521885399</v>
       </c>
-      <c r="G49" s="13">
-        <f t="shared" si="1"/>
+      <c r="G49" s="15">
+        <v>-0.34759594064506599</v>
+      </c>
+      <c r="H49" s="13">
+        <f>(1 - SQRT(2*F49^3 + 1))/ F49^2</f>
         <v>-0.3475961026717333</v>
       </c>
-      <c r="H49" s="15">
-        <v>-0.34759594064506599</v>
+      <c r="I49" s="23">
+        <f>ABS(G49-H49)</f>
+        <v>1.620266673052484E-7</v>
       </c>
       <c r="M49" s="15">
         <v>0.50841750841750699</v>
@@ -2766,23 +2966,29 @@
       <c r="N49" s="15">
         <v>-0.47878851510998799</v>
       </c>
-      <c r="Q49">
-        <v>0.65993265993265804</v>
-      </c>
-      <c r="R49">
-        <v>-0.58532628395340103</v>
-      </c>
-    </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O49" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.47878963500278904</v>
+      </c>
+      <c r="P49" s="23">
+        <f t="shared" si="2"/>
+        <v>1.1198928010491827E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F50" s="15">
         <v>0.40572390572390399</v>
       </c>
-      <c r="G50" s="13">
-        <f t="shared" si="1"/>
+      <c r="G50" s="15">
+        <v>-0.39301091393486698</v>
+      </c>
+      <c r="H50" s="13">
+        <f>(1 - SQRT(2*F50^3 + 1))/ F50^2</f>
         <v>-0.39301111588014576</v>
       </c>
-      <c r="H50" s="15">
-        <v>-0.39301091393486698</v>
+      <c r="I50" s="23">
+        <f>ABS(G50-H50)</f>
+        <v>2.0194527877714918E-7</v>
       </c>
       <c r="M50" s="15">
         <v>0.55892255892255704</v>
@@ -2790,23 +2996,29 @@
       <c r="N50" s="15">
         <v>-0.51714748337710703</v>
       </c>
-      <c r="Q50">
-        <v>0.71043771043770798</v>
-      </c>
-      <c r="R50">
-        <v>-0.61498971518508405</v>
-      </c>
-    </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O50" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.51714873638150494</v>
+      </c>
+      <c r="P50" s="23">
+        <f t="shared" si="2"/>
+        <v>1.2530043979053218E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F51" s="15">
         <v>0.45622895622895399</v>
       </c>
-      <c r="G51" s="13">
-        <f t="shared" si="1"/>
+      <c r="G51" s="15">
+        <v>-0.43640790503188198</v>
+      </c>
+      <c r="H51" s="13">
+        <f>(1 - SQRT(2*F51^3 + 1))/ F51^2</f>
         <v>-0.436408146429629</v>
       </c>
-      <c r="H51" s="15">
-        <v>-0.43640790503188198</v>
+      <c r="I51" s="23">
+        <f>ABS(G51-H51)</f>
+        <v>2.4139774701392724E-7</v>
       </c>
       <c r="M51" s="15">
         <v>0.60942760942760799</v>
@@ -2814,23 +3026,29 @@
       <c r="N51" s="15">
         <v>-0.55269877440179904</v>
       </c>
-      <c r="Q51">
-        <v>0.76094276094275903</v>
-      </c>
-      <c r="R51">
-        <v>-0.64171723813580095</v>
-      </c>
-    </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O51" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.55270014062938733</v>
+      </c>
+      <c r="P51" s="23">
+        <f t="shared" si="2"/>
+        <v>1.3662275882841968E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F52" s="15">
         <v>0.50673400673400504</v>
       </c>
-      <c r="G52" s="13">
-        <f t="shared" si="1"/>
+      <c r="G52" s="15">
+        <v>-0.47746440898651599</v>
+      </c>
+      <c r="H52" s="13">
+        <f>(1 - SQRT(2*F52^3 + 1))/ F52^2</f>
         <v>-0.47746468756366256</v>
       </c>
-      <c r="H52" s="15">
-        <v>-0.47746440898651599</v>
+      <c r="I52" s="23">
+        <f>ABS(G52-H52)</f>
+        <v>2.7857714657297805E-7</v>
       </c>
       <c r="M52" s="15">
         <v>0.65993265993265804</v>
@@ -2838,23 +3056,29 @@
       <c r="N52" s="15">
         <v>-0.58532628395340103</v>
       </c>
-      <c r="Q52">
-        <v>0.81144781144780898</v>
-      </c>
-      <c r="R52">
-        <v>-0.66559422682261105</v>
-      </c>
-    </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O52" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.58532774090460127</v>
+      </c>
+      <c r="P52" s="23">
+        <f t="shared" si="2"/>
+        <v>1.456951200240475E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F53" s="15">
         <v>0.55723905723905698</v>
       </c>
-      <c r="G53" s="13">
-        <f t="shared" si="1"/>
+      <c r="G53" s="15">
+        <v>-0.51591415845013</v>
+      </c>
+      <c r="H53" s="13">
+        <f>(1 - SQRT(2*F53^3 + 1))/ F53^2</f>
         <v>-0.51591447039706351</v>
       </c>
-      <c r="H53" s="15">
-        <v>-0.51591415845013</v>
+      <c r="I53" s="23">
+        <f>ABS(G53-H53)</f>
+        <v>3.1194693350666824E-7</v>
       </c>
       <c r="M53" s="15">
         <v>0.71043771043770798</v>
@@ -2862,23 +3086,29 @@
       <c r="N53" s="15">
         <v>-0.61498971518508405</v>
       </c>
-      <c r="Q53">
-        <v>0.86195286195285903</v>
-      </c>
-      <c r="R53">
-        <v>-0.68675022347419601</v>
-      </c>
-    </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O53" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.61499123955936152</v>
+      </c>
+      <c r="P53" s="23">
+        <f t="shared" si="2"/>
+        <v>1.524374277472873E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F54" s="15">
         <v>0.60774410774410903</v>
       </c>
-      <c r="G54" s="13">
-        <f t="shared" si="1"/>
+      <c r="G54" s="15">
+        <v>-0.55156142691702903</v>
+      </c>
+      <c r="H54" s="13">
+        <f>(1 - SQRT(2*F54^3 + 1))/ F54^2</f>
         <v>-0.55156176729265649</v>
       </c>
-      <c r="H54" s="15">
-        <v>-0.55156142691702903</v>
+      <c r="I54" s="23">
+        <f>ABS(G54-H54)</f>
+        <v>3.4037562746114247E-7</v>
       </c>
       <c r="M54" s="15">
         <v>0.76094276094275903</v>
@@ -2886,23 +3116,29 @@
       <c r="N54" s="15">
         <v>-0.64171723813580095</v>
       </c>
-      <c r="Q54">
-        <v>0.91245791245790897</v>
-      </c>
-      <c r="R54">
-        <v>-0.70534590512861195</v>
-      </c>
-    </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O54" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.64171880735735498</v>
+      </c>
+      <c r="P54" s="23">
+        <f t="shared" si="2"/>
+        <v>1.569221554031941E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F55" s="15">
         <v>0.65824915824916097</v>
       </c>
-      <c r="G55" s="13">
-        <f t="shared" si="1"/>
+      <c r="G55" s="15">
+        <v>-0.58428752001814099</v>
+      </c>
+      <c r="H55" s="13">
+        <f>(1 - SQRT(2*F55^3 + 1))/ F55^2</f>
         <v>-0.58428788321617264</v>
       </c>
-      <c r="H55" s="15">
-        <v>-0.58428752001814099</v>
+      <c r="I55" s="23">
+        <f>ABS(G55-H55)</f>
+        <v>3.6319803164985842E-7</v>
       </c>
       <c r="M55" s="15">
         <v>0.81144781144780898</v>
@@ -2910,23 +3146,29 @@
       <c r="N55" s="15">
         <v>-0.66559422682261105</v>
       </c>
-      <c r="Q55">
-        <v>0.96296296296296002</v>
-      </c>
-      <c r="R55">
-        <v>-0.72156127083388899</v>
-      </c>
-    </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O55" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.66559582016123364</v>
+      </c>
+      <c r="P55" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5933386225963631E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F56" s="15">
         <v>0.70875420875421302</v>
       </c>
-      <c r="G56" s="13">
-        <f t="shared" si="1"/>
+      <c r="G56" s="15">
+        <v>-0.61404970354091404</v>
+      </c>
+      <c r="H56" s="13">
+        <f>(1 - SQRT(2*F56^3 + 1))/ F56^2</f>
         <v>-0.61405008374310488</v>
       </c>
-      <c r="H56" s="15">
-        <v>-0.61404970354091404</v>
+      <c r="I56" s="23">
+        <f>ABS(G56-H56)</f>
+        <v>3.8020219084167195E-7</v>
       </c>
       <c r="M56" s="15">
         <v>0.86195286195285903</v>
@@ -2934,17 +3176,29 @@
       <c r="N56" s="15">
         <v>-0.68675022347419601</v>
       </c>
-    </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O56" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.68675182274027169</v>
+      </c>
+      <c r="P56" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5992660756802834E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F57" s="15">
         <v>0.75925925925926496</v>
       </c>
-      <c r="G57" s="13">
-        <f t="shared" si="1"/>
+      <c r="G57" s="15">
+        <v>-0.64087403159877898</v>
+      </c>
+      <c r="H57" s="13">
+        <f>(1 - SQRT(2*F57^3 + 1))/ F57^2</f>
         <v>-0.64087442315833831</v>
       </c>
-      <c r="H57" s="15">
-        <v>-0.64087403159877898</v>
+      <c r="I57" s="23">
+        <f>ABS(G57-H57)</f>
+        <v>3.9155955933178888E-7</v>
       </c>
       <c r="M57" s="15">
         <v>0.91245791245790897</v>
@@ -2952,17 +3206,29 @@
       <c r="N57" s="15">
         <v>-0.70534590512861195</v>
       </c>
-    </row>
-    <row r="58" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O57" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.70534749499167615</v>
+      </c>
+      <c r="P57" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5898630641997258E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F58" s="15">
         <v>0.80976430976431701</v>
       </c>
-      <c r="G58" s="13">
-        <f t="shared" si="1"/>
+      <c r="G58" s="15">
+        <v>-0.66484417836467202</v>
+      </c>
+      <c r="H58" s="13">
+        <f>(1 - SQRT(2*F58^3 + 1))/ F58^2</f>
         <v>-0.66484457608909076</v>
       </c>
-      <c r="H58" s="15">
-        <v>-0.66484417836467202</v>
+      <c r="I58" s="23">
+        <f>ABS(G58-H58)</f>
+        <v>3.9772441873253683E-7</v>
       </c>
       <c r="M58" s="15">
         <v>0.96296296296296002</v>
@@ -2970,48 +3236,85 @@
       <c r="N58" s="15">
         <v>-0.72156127083388899</v>
       </c>
-    </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O58" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.72156283885001249</v>
+      </c>
+      <c r="P58" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5680161234987722E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F59" s="15">
         <v>0.86026936026936895</v>
       </c>
-      <c r="G59" s="13">
-        <f t="shared" si="1"/>
+      <c r="G59" s="15">
+        <v>-0.68608842965803796</v>
+      </c>
+      <c r="H59" s="13">
+        <f>(1 - SQRT(2*F59^3 + 1))/ F59^2</f>
         <v>-0.6860888289854965</v>
       </c>
-      <c r="H59" s="15">
-        <v>-0.68608842965803796</v>
-      </c>
-    </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="I59" s="23">
+        <f>ABS(G59-H59)</f>
+        <v>3.9932745854454055E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F60" s="15">
         <v>0.91077441077442001</v>
       </c>
-      <c r="G60" s="13">
-        <f t="shared" si="1"/>
+      <c r="G60" s="15">
+        <v>-0.70476662630466003</v>
+      </c>
+      <c r="H60" s="13">
+        <f>(1 - SQRT(2*F60^3 + 1))/ F60^2</f>
         <v>-0.70476702338598152</v>
       </c>
-      <c r="H60" s="15">
-        <v>-0.70476662630466003</v>
-      </c>
-    </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="I60" s="23">
+        <f>ABS(G60-H60)</f>
+        <v>3.970813214904112E-7</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="24">
+        <f>MAX(P39:P58)</f>
+        <v>1.5992660756802834E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F61" s="15">
         <v>0.96127946127947195</v>
       </c>
-      <c r="G61" s="13">
-        <f t="shared" si="1"/>
+      <c r="G61" s="15">
+        <v>-0.72105829687838296</v>
+      </c>
+      <c r="H61" s="13">
+        <f>(1 - SQRT(2*F61^3 + 1))/ F61^2</f>
         <v>-0.72105868858564959</v>
       </c>
-      <c r="H61" s="15">
-        <v>-0.72105829687838296</v>
+      <c r="I61" s="23">
+        <f>ABS(G61-H61)</f>
+        <v>3.9170726662263178E-7</v>
+      </c>
+    </row>
+    <row r="63" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H63" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="24">
+        <f>MAX(I42:I61)</f>
+        <v>3.9932745854454055E-7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="M37:N37"/>
+    <mergeCell ref="F40:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/6th semester/Lab 2/Lab 2 Comaparison.xlsx
+++ b/6th semester/Lab 2/Lab 2 Comaparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Программы\MIPT_computer_math\6th semester\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C168B0E-5D21-4150-AE18-296AB89B65B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3493F11C-A7A4-4E65-A64B-94F39AD9A77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8FFFAF0C-88C7-484C-9808-CC2A0D5E9ABD}"/>
   </bookViews>
@@ -71,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0.0000000000_-;\-* #,##0.0000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000000_-;\-* #,##0.0000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -188,6 +188,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -197,10 +201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1732,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D8BED-D799-4B0B-87DA-90CB3B3FE467}">
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,19 +1750,19 @@
     <col min="13" max="13" width="18.140625" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="2"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="24"/>
       <c r="I1" s="9"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -2640,10 +2640,10 @@
       </c>
     </row>
     <row r="37" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="20"/>
+      <c r="N37" s="24"/>
       <c r="O37" s="17" t="s">
         <v>2</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="O38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P38" s="21" t="s">
+      <c r="P38" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2676,16 +2676,16 @@
         <f>(1 - SQRT(2*M39^3 + 1))/ M39^2</f>
         <v>-3.3670033052777414E-3</v>
       </c>
-      <c r="P39" s="23">
+      <c r="P39" s="20">
         <f>ABS(O39-N39)</f>
         <v>6.679540124135408E-11</v>
       </c>
     </row>
     <row r="40" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="19"/>
+      <c r="G40" s="23"/>
       <c r="H40" s="16" t="s">
         <v>2</v>
       </c>
@@ -2702,7 +2702,7 @@
         <f t="shared" ref="O40:O58" si="1">(1 - SQRT(2*M40^3 + 1))/ M40^2</f>
         <v>-5.3867843153208195E-2</v>
       </c>
-      <c r="P40" s="23">
+      <c r="P40" s="20">
         <f t="shared" ref="P40:P58" si="2">ABS(O40-N40)</f>
         <v>1.6445143594112643E-8</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="H41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="18" t="s">
         <v>7</v>
       </c>
       <c r="M41" s="15">
@@ -2730,7 +2730,7 @@
         <f t="shared" si="1"/>
         <v>-0.10431782583043811</v>
       </c>
-      <c r="P41" s="23">
+      <c r="P41" s="20">
         <f t="shared" si="2"/>
         <v>6.159825610696501E-8</v>
       </c>
@@ -2743,11 +2743,11 @@
         <v>-1.6835016754691099E-3</v>
       </c>
       <c r="H42" s="13">
-        <f>(1 - SQRT(2*F42^3 + 1))/ F42^2</f>
+        <f t="shared" ref="H42:H61" si="3">(1 - SQRT(2*F42^3 + 1))/ F42^2</f>
         <v>-1.6835016918115358E-3</v>
       </c>
-      <c r="I42" s="23">
-        <f>ABS(G42-H42)</f>
+      <c r="I42" s="20">
+        <f t="shared" ref="I42:I61" si="4">ABS(G42-H42)</f>
         <v>1.6342425893448032E-11</v>
       </c>
       <c r="M42" s="15">
@@ -2760,7 +2760,7 @@
         <f t="shared" si="1"/>
         <v>-0.15459549531602687</v>
       </c>
-      <c r="P42" s="23">
+      <c r="P42" s="20">
         <f t="shared" si="2"/>
         <v>1.3484645486339097E-7</v>
       </c>
@@ -2773,11 +2773,11 @@
         <v>-5.2184839736271797E-2</v>
       </c>
       <c r="H43" s="13">
-        <f>(1 - SQRT(2*F43^3 + 1))/ F43^2</f>
+        <f t="shared" si="3"/>
         <v>-5.2184843594692804E-2</v>
       </c>
-      <c r="I43" s="23">
-        <f>ABS(G43-H43)</f>
+      <c r="I43" s="20">
+        <f t="shared" si="4"/>
         <v>3.8584210063086211E-9</v>
       </c>
       <c r="M43" s="15">
@@ -2790,7 +2790,7 @@
         <f t="shared" si="1"/>
         <v>-0.2045050907621582</v>
       </c>
-      <c r="P43" s="23">
+      <c r="P43" s="20">
         <f t="shared" si="2"/>
         <v>2.3450655819989841E-7</v>
       </c>
@@ -2803,11 +2803,11 @@
         <v>-0.10263803912347599</v>
       </c>
       <c r="H44" s="13">
-        <f>(1 - SQRT(2*F44^3 + 1))/ F44^2</f>
+        <f t="shared" si="3"/>
         <v>-0.10263805403150281</v>
       </c>
-      <c r="I44" s="23">
-        <f>ABS(G44-H44)</f>
+      <c r="I44" s="20">
+        <f t="shared" si="4"/>
         <v>1.4908026813031938E-8</v>
       </c>
       <c r="M44" s="15">
@@ -2820,7 +2820,7 @@
         <f t="shared" si="1"/>
         <v>-0.25378357285374581</v>
       </c>
-      <c r="P44" s="23">
+      <c r="P44" s="20">
         <f t="shared" si="2"/>
         <v>3.5751895383073773E-7</v>
       </c>
@@ -2833,11 +2833,11 @@
         <v>-0.152924189656061</v>
       </c>
       <c r="H45" s="13">
-        <f>(1 - SQRT(2*F45^3 + 1))/ F45^2</f>
+        <f t="shared" si="3"/>
         <v>-0.15292422264480873</v>
       </c>
-      <c r="I45" s="23">
-        <f>ABS(G45-H45)</f>
+      <c r="I45" s="20">
+        <f t="shared" si="4"/>
         <v>3.2988747733497803E-8</v>
       </c>
       <c r="M45" s="15">
@@ -2850,7 +2850,7 @@
         <f t="shared" si="1"/>
         <v>-0.30211301731573181</v>
       </c>
-      <c r="P45" s="23">
+      <c r="P45" s="20">
         <f t="shared" si="2"/>
         <v>4.9926674383637959E-7</v>
       </c>
@@ -2863,11 +2863,11 @@
         <v>-0.202849921427772</v>
       </c>
       <c r="H46" s="13">
-        <f>(1 - SQRT(2*F46^3 + 1))/ F46^2</f>
+        <f t="shared" si="3"/>
         <v>-0.20284997911568944</v>
       </c>
-      <c r="I46" s="23">
-        <f>ABS(G46-H46)</f>
+      <c r="I46" s="20">
+        <f t="shared" si="4"/>
         <v>5.7687917442983405E-8</v>
       </c>
       <c r="M46" s="15">
@@ -2880,7 +2880,7 @@
         <f t="shared" si="1"/>
         <v>-0.34913872596750128</v>
       </c>
-      <c r="P46" s="23">
+      <c r="P46" s="20">
         <f t="shared" si="2"/>
         <v>6.5366595830562702E-7</v>
       </c>
@@ -2893,11 +2893,11 @@
         <v>-0.25215427086141701</v>
       </c>
       <c r="H47" s="13">
-        <f>(1 - SQRT(2*F47^3 + 1))/ F47^2</f>
+        <f t="shared" si="3"/>
         <v>-0.25215435911230294</v>
       </c>
-      <c r="I47" s="23">
-        <f>ABS(G47-H47)</f>
+      <c r="I47" s="20">
+        <f t="shared" si="4"/>
         <v>8.8250885932339429E-8</v>
       </c>
       <c r="M47" s="15">
@@ -2910,7 +2910,7 @@
         <f t="shared" si="1"/>
         <v>-0.39449210781963651</v>
       </c>
-      <c r="P47" s="23">
+      <c r="P47" s="20">
         <f t="shared" si="2"/>
         <v>8.1356023751144591E-7</v>
       </c>
@@ -2923,11 +2923,11 @@
         <v>-0.30052088323022602</v>
       </c>
       <c r="H48" s="13">
-        <f>(1 - SQRT(2*F48^3 + 1))/ F48^2</f>
+        <f t="shared" si="3"/>
         <v>-0.30052100676450622</v>
       </c>
-      <c r="I48" s="23">
-        <f>ABS(G48-H48)</f>
+      <c r="I48" s="20">
+        <f t="shared" si="4"/>
         <v>1.2353428019418189E-7</v>
       </c>
       <c r="M48" s="15">
@@ -2940,7 +2940,7 @@
         <f t="shared" si="1"/>
         <v>-0.43781605669930967</v>
       </c>
-      <c r="P48" s="23">
+      <c r="P48" s="20">
         <f t="shared" si="2"/>
         <v>9.7137362164989582E-7</v>
       </c>
@@ -2953,11 +2953,11 @@
         <v>-0.34759594064506599</v>
       </c>
       <c r="H49" s="13">
-        <f>(1 - SQRT(2*F49^3 + 1))/ F49^2</f>
+        <f t="shared" si="3"/>
         <v>-0.3475961026717333</v>
       </c>
-      <c r="I49" s="23">
-        <f>ABS(G49-H49)</f>
+      <c r="I49" s="20">
+        <f t="shared" si="4"/>
         <v>1.620266673052484E-7</v>
       </c>
       <c r="M49" s="15">
@@ -2970,7 +2970,7 @@
         <f t="shared" si="1"/>
         <v>-0.47878963500278904</v>
       </c>
-      <c r="P49" s="23">
+      <c r="P49" s="20">
         <f t="shared" si="2"/>
         <v>1.1198928010491827E-6</v>
       </c>
@@ -2983,11 +2983,11 @@
         <v>-0.39301091393486698</v>
       </c>
       <c r="H50" s="13">
-        <f>(1 - SQRT(2*F50^3 + 1))/ F50^2</f>
+        <f t="shared" si="3"/>
         <v>-0.39301111588014576</v>
       </c>
-      <c r="I50" s="23">
-        <f>ABS(G50-H50)</f>
+      <c r="I50" s="20">
+        <f t="shared" si="4"/>
         <v>2.0194527877714918E-7</v>
       </c>
       <c r="M50" s="15">
@@ -3000,7 +3000,7 @@
         <f t="shared" si="1"/>
         <v>-0.51714873638150494</v>
       </c>
-      <c r="P50" s="23">
+      <c r="P50" s="20">
         <f t="shared" si="2"/>
         <v>1.2530043979053218E-6</v>
       </c>
@@ -3013,11 +3013,11 @@
         <v>-0.43640790503188198</v>
       </c>
       <c r="H51" s="13">
-        <f>(1 - SQRT(2*F51^3 + 1))/ F51^2</f>
+        <f t="shared" si="3"/>
         <v>-0.436408146429629</v>
       </c>
-      <c r="I51" s="23">
-        <f>ABS(G51-H51)</f>
+      <c r="I51" s="20">
+        <f t="shared" si="4"/>
         <v>2.4139774701392724E-7</v>
       </c>
       <c r="M51" s="15">
@@ -3030,7 +3030,7 @@
         <f t="shared" si="1"/>
         <v>-0.55270014062938733</v>
       </c>
-      <c r="P51" s="23">
+      <c r="P51" s="20">
         <f t="shared" si="2"/>
         <v>1.3662275882841968E-6</v>
       </c>
@@ -3043,11 +3043,11 @@
         <v>-0.47746440898651599</v>
       </c>
       <c r="H52" s="13">
-        <f>(1 - SQRT(2*F52^3 + 1))/ F52^2</f>
+        <f t="shared" si="3"/>
         <v>-0.47746468756366256</v>
       </c>
-      <c r="I52" s="23">
-        <f>ABS(G52-H52)</f>
+      <c r="I52" s="20">
+        <f t="shared" si="4"/>
         <v>2.7857714657297805E-7</v>
       </c>
       <c r="M52" s="15">
@@ -3060,7 +3060,7 @@
         <f t="shared" si="1"/>
         <v>-0.58532774090460127</v>
       </c>
-      <c r="P52" s="23">
+      <c r="P52" s="20">
         <f t="shared" si="2"/>
         <v>1.456951200240475E-6</v>
       </c>
@@ -3073,11 +3073,11 @@
         <v>-0.51591415845013</v>
       </c>
       <c r="H53" s="13">
-        <f>(1 - SQRT(2*F53^3 + 1))/ F53^2</f>
+        <f t="shared" si="3"/>
         <v>-0.51591447039706351</v>
       </c>
-      <c r="I53" s="23">
-        <f>ABS(G53-H53)</f>
+      <c r="I53" s="20">
+        <f t="shared" si="4"/>
         <v>3.1194693350666824E-7</v>
       </c>
       <c r="M53" s="15">
@@ -3090,7 +3090,7 @@
         <f t="shared" si="1"/>
         <v>-0.61499123955936152</v>
       </c>
-      <c r="P53" s="23">
+      <c r="P53" s="20">
         <f t="shared" si="2"/>
         <v>1.524374277472873E-6</v>
       </c>
@@ -3103,11 +3103,11 @@
         <v>-0.55156142691702903</v>
       </c>
       <c r="H54" s="13">
-        <f>(1 - SQRT(2*F54^3 + 1))/ F54^2</f>
+        <f t="shared" si="3"/>
         <v>-0.55156176729265649</v>
       </c>
-      <c r="I54" s="23">
-        <f>ABS(G54-H54)</f>
+      <c r="I54" s="20">
+        <f t="shared" si="4"/>
         <v>3.4037562746114247E-7</v>
       </c>
       <c r="M54" s="15">
@@ -3120,7 +3120,7 @@
         <f t="shared" si="1"/>
         <v>-0.64171880735735498</v>
       </c>
-      <c r="P54" s="23">
+      <c r="P54" s="20">
         <f t="shared" si="2"/>
         <v>1.569221554031941E-6</v>
       </c>
@@ -3133,11 +3133,11 @@
         <v>-0.58428752001814099</v>
       </c>
       <c r="H55" s="13">
-        <f>(1 - SQRT(2*F55^3 + 1))/ F55^2</f>
+        <f t="shared" si="3"/>
         <v>-0.58428788321617264</v>
       </c>
-      <c r="I55" s="23">
-        <f>ABS(G55-H55)</f>
+      <c r="I55" s="20">
+        <f t="shared" si="4"/>
         <v>3.6319803164985842E-7</v>
       </c>
       <c r="M55" s="15">
@@ -3150,7 +3150,7 @@
         <f t="shared" si="1"/>
         <v>-0.66559582016123364</v>
       </c>
-      <c r="P55" s="23">
+      <c r="P55" s="20">
         <f t="shared" si="2"/>
         <v>1.5933386225963631E-6</v>
       </c>
@@ -3163,11 +3163,11 @@
         <v>-0.61404970354091404</v>
       </c>
       <c r="H56" s="13">
-        <f>(1 - SQRT(2*F56^3 + 1))/ F56^2</f>
+        <f t="shared" si="3"/>
         <v>-0.61405008374310488</v>
       </c>
-      <c r="I56" s="23">
-        <f>ABS(G56-H56)</f>
+      <c r="I56" s="20">
+        <f t="shared" si="4"/>
         <v>3.8020219084167195E-7</v>
       </c>
       <c r="M56" s="15">
@@ -3180,7 +3180,7 @@
         <f t="shared" si="1"/>
         <v>-0.68675182274027169</v>
       </c>
-      <c r="P56" s="23">
+      <c r="P56" s="20">
         <f t="shared" si="2"/>
         <v>1.5992660756802834E-6</v>
       </c>
@@ -3193,11 +3193,11 @@
         <v>-0.64087403159877898</v>
       </c>
       <c r="H57" s="13">
-        <f>(1 - SQRT(2*F57^3 + 1))/ F57^2</f>
+        <f t="shared" si="3"/>
         <v>-0.64087442315833831</v>
       </c>
-      <c r="I57" s="23">
-        <f>ABS(G57-H57)</f>
+      <c r="I57" s="20">
+        <f t="shared" si="4"/>
         <v>3.9155955933178888E-7</v>
       </c>
       <c r="M57" s="15">
@@ -3210,7 +3210,7 @@
         <f t="shared" si="1"/>
         <v>-0.70534749499167615</v>
       </c>
-      <c r="P57" s="23">
+      <c r="P57" s="20">
         <f t="shared" si="2"/>
         <v>1.5898630641997258E-6</v>
       </c>
@@ -3223,11 +3223,11 @@
         <v>-0.66484417836467202</v>
       </c>
       <c r="H58" s="13">
-        <f>(1 - SQRT(2*F58^3 + 1))/ F58^2</f>
+        <f t="shared" si="3"/>
         <v>-0.66484457608909076</v>
       </c>
-      <c r="I58" s="23">
-        <f>ABS(G58-H58)</f>
+      <c r="I58" s="20">
+        <f t="shared" si="4"/>
         <v>3.9772441873253683E-7</v>
       </c>
       <c r="M58" s="15">
@@ -3240,7 +3240,7 @@
         <f t="shared" si="1"/>
         <v>-0.72156283885001249</v>
       </c>
-      <c r="P58" s="23">
+      <c r="P58" s="20">
         <f t="shared" si="2"/>
         <v>1.5680161234987722E-6</v>
       </c>
@@ -3253,11 +3253,11 @@
         <v>-0.68608842965803796</v>
       </c>
       <c r="H59" s="13">
-        <f>(1 - SQRT(2*F59^3 + 1))/ F59^2</f>
+        <f t="shared" si="3"/>
         <v>-0.6860888289854965</v>
       </c>
-      <c r="I59" s="23">
-        <f>ABS(G59-H59)</f>
+      <c r="I59" s="20">
+        <f t="shared" si="4"/>
         <v>3.9932745854454055E-7</v>
       </c>
     </row>
@@ -3269,17 +3269,17 @@
         <v>-0.70476662630466003</v>
       </c>
       <c r="H60" s="13">
-        <f>(1 - SQRT(2*F60^3 + 1))/ F60^2</f>
+        <f t="shared" si="3"/>
         <v>-0.70476702338598152</v>
       </c>
-      <c r="I60" s="23">
-        <f>ABS(G60-H60)</f>
+      <c r="I60" s="20">
+        <f t="shared" si="4"/>
         <v>3.970813214904112E-7</v>
       </c>
-      <c r="O60" s="22" t="s">
+      <c r="O60" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P60" s="24">
+      <c r="P60" s="21">
         <f>MAX(P39:P58)</f>
         <v>1.5992660756802834E-6</v>
       </c>
@@ -3292,19 +3292,19 @@
         <v>-0.72105829687838296</v>
       </c>
       <c r="H61" s="13">
-        <f>(1 - SQRT(2*F61^3 + 1))/ F61^2</f>
+        <f t="shared" si="3"/>
         <v>-0.72105868858564959</v>
       </c>
-      <c r="I61" s="23">
-        <f>ABS(G61-H61)</f>
+      <c r="I61" s="20">
+        <f t="shared" si="4"/>
         <v>3.9170726662263178E-7</v>
       </c>
     </row>
     <row r="63" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="H63" s="22" t="s">
+      <c r="H63" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I63" s="21">
         <f>MAX(I42:I61)</f>
         <v>3.9932745854454055E-7</v>
       </c>
